--- a/GroupElementListModular.xlsx
+++ b/GroupElementListModular.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +446,288 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>SWM</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SWM_Nr</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>sPID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tag_Number_Definition</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Prop_PID_Number</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Prop_PID_Element</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Cx1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Cx1_Nr</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>S_MOTOR1</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>1.150</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Exhaust air fan</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['M', 'SC', 'TSA+', 'V']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>S_DRIVE</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>1.550</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>Exhaust air flap</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['GIA', 'K', 'Y', 'YC']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>S_LIMIT_HI_LO</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>1.555</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>Exhaust bypass valve</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1.555</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['GIA', 'V', 'Y', 'YC']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>S_LIMIT_HI_LO</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>1.560</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Exhaust air flap</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['GIA', 'K', 'Y', 'YC']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>S_LIMIT_HI_LO</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>1.655</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>Control valve</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1.655</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['H', 'M', 'NC']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>S_REG_CONT</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>1.680</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>Electric heating</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['EC', 'TSA+']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>S_REG_CONT</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>1.825</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>Flow rate sensor</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['FIA+', 'H', 'YC']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>S_REG_CONT</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A8"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>